--- a/documentation/RootsV3.xlsx
+++ b/documentation/RootsV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE6BB09-9ED4-400D-B5F8-AF581224D1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7A187-67E7-4581-847C-BB9703BBF7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
   <si>
     <t>Requisição</t>
   </si>
@@ -251,9 +251,6 @@
   </si>
   <si>
     <t>Obter as reservas do tipo de quarto</t>
-  </si>
-  <si>
-    <t>Obter os pacotes associados ao  tipo de quarto</t>
   </si>
   <si>
     <t>Obter os quartos associados ao tipo de quarto</t>
@@ -748,10 +745,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465699-1A4C-4BD8-B810-481E3C1F192C}">
-  <dimension ref="B2:Z43"/>
+  <dimension ref="B2:Z42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +759,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1423,8 +1420,12 @@
       <c r="H20" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="I20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -1451,7 +1452,9 @@
       <c r="I22" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="K22" s="3"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -1479,7 +1482,9 @@
       <c r="I23" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="15"/>
+      <c r="J23" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="K23" s="3"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -1590,8 +1595,12 @@
       <c r="H27" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
+      <c r="I27" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="L27" s="15"/>
       <c r="M27" s="15"/>
       <c r="N27" s="15"/>
@@ -1615,7 +1624,9 @@
       <c r="H28" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="J28" s="15"/>
       <c r="L28" s="15"/>
       <c r="M28" s="15"/>
@@ -1638,58 +1649,63 @@
       </c>
       <c r="G29" s="4"/>
       <c r="H29" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I29" s="15"/>
+        <v>69</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="J29" s="15"/>
       <c r="L29" s="15"/>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
       <c r="O29" s="15"/>
     </row>
-    <row r="30" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="21"/>
-      <c r="C30" s="4" t="s">
+    <row r="30" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I30" s="15"/>
-      <c r="J30" s="15"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="15"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="15"/>
-    </row>
-    <row r="31" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="4" t="s">
+      <c r="E31" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="5"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="4" t="s">
         <v>38</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="15"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="19"/>
+      <c r="C32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="I32" s="15" t="s">
         <v>10</v>
@@ -1701,23 +1717,27 @@
       <c r="L32" s="15"/>
       <c r="M32" s="15"/>
       <c r="N32" s="15"/>
-      <c r="O32" s="15"/>
+      <c r="O32" s="15" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B33" s="19"/>
-      <c r="C33" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="7" t="s">
+      <c r="C33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="7"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="7" t="s">
-        <v>39</v>
+      <c r="E33" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="I33" s="15" t="s">
         <v>10</v>
@@ -1735,21 +1755,21 @@
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B34" s="19"/>
-      <c r="C34" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="4" t="s">
-        <v>40</v>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" s="11"/>
+      <c r="H34" s="10" t="s">
+        <v>41</v>
       </c>
       <c r="I34" s="15" t="s">
         <v>10</v>
@@ -1761,27 +1781,25 @@
       <c r="L34" s="15"/>
       <c r="M34" s="15"/>
       <c r="N34" s="15"/>
-      <c r="O34" s="15" t="s">
-        <v>10</v>
-      </c>
+      <c r="O34" s="15"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B35" s="19"/>
-      <c r="C35" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="10" t="s">
+      <c r="C35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="10" t="s">
-        <v>41</v>
+      <c r="E35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="I35" s="15" t="s">
         <v>10</v>
@@ -1797,74 +1815,74 @@
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B36" s="19"/>
-      <c r="C36" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F36" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K36" s="3"/>
+      <c r="E36" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" s="9"/>
+      <c r="H36" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
       <c r="L36" s="15"/>
       <c r="M36" s="15"/>
       <c r="N36" s="15"/>
       <c r="O36" s="15"/>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="19"/>
-      <c r="C37" s="7" t="s">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="5"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="3"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="19"/>
+      <c r="C39" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F37" s="7"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I37" s="16"/>
-      <c r="J37" s="16"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="15"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="15"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="5"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="4" t="s">
-        <v>45</v>
+      <c r="E39" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="I39" s="15" t="s">
         <v>10</v>
@@ -1880,19 +1898,21 @@
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B40" s="19"/>
-      <c r="C40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D40" s="7" t="s">
+      <c r="C40" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E40" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="7"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="7" t="s">
-        <v>46</v>
+      <c r="E40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="I40" s="15" t="s">
         <v>10</v>
@@ -1908,21 +1928,21 @@
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B41" s="19"/>
-      <c r="C41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="4" t="s">
-        <v>47</v>
+      <c r="E41" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G41" s="11"/>
+      <c r="H41" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="I41" s="15" t="s">
         <v>10</v>
@@ -1938,21 +1958,21 @@
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B42" s="19"/>
-      <c r="C42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="C42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10" t="s">
-        <v>48</v>
+      <c r="E42" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12" t="s">
+        <v>49</v>
       </c>
       <c r="I42" s="15" t="s">
         <v>10</v>
@@ -1966,49 +1986,19 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="19"/>
-      <c r="C43" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="J43" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="K43" s="3"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="15"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="15"/>
-    </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="Q2:Z15"/>
-    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="B38:B42"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:B13"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B32:B37"/>
+    <mergeCell ref="B31:B36"/>
     <mergeCell ref="L2:O2"/>
     <mergeCell ref="C2:J2"/>
     <mergeCell ref="B15:B20"/>
-    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="B22:B29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/RootsV3.xlsx
+++ b/documentation/RootsV3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WallQ-\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E7A187-67E7-4581-847C-BB9703BBF7B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB06E4C-ADBD-4E94-AFDE-8E6ACE94E1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4268568D-A048-4D06-9752-F2A98D35CC0F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="82">
   <si>
     <t>Requisição</t>
   </si>
@@ -255,13 +255,49 @@
   <si>
     <t>Obter os quartos associados ao tipo de quarto</t>
   </si>
+  <si>
+    <t>auth</t>
+  </si>
+  <si>
+    <t>/sign-in</t>
+  </si>
+  <si>
+    <t>/sign-up</t>
+  </si>
+  <si>
+    <t>/sing-out</t>
+  </si>
+  <si>
+    <t>/forgot-password</t>
+  </si>
+  <si>
+    <t>/new-password</t>
+  </si>
+  <si>
+    <t>Regista um novo utilizador</t>
+  </si>
+  <si>
+    <t>Autentica um utilizador</t>
+  </si>
+  <si>
+    <t>Termina a sessão</t>
+  </si>
+  <si>
+    <t>Pedido de alteração de password</t>
+  </si>
+  <si>
+    <t>Introdução de nova password</t>
+  </si>
+  <si>
+    <t>AUTH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -362,7 +398,7 @@
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -408,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76465699-1A4C-4BD8-B810-481E3C1F192C}">
-  <dimension ref="B2:Z42"/>
+  <dimension ref="B2:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +793,7 @@
     <col min="2" max="2" width="3.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="3.140625" customWidth="1"/>
     <col min="8" max="8" width="57.7109375" bestFit="1" customWidth="1"/>
@@ -1986,8 +2022,136 @@
       <c r="N42" s="15"/>
       <c r="O42" s="15"/>
     </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="21"/>
+      <c r="C45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="I45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J45" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="21"/>
+      <c r="C46" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="I46" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="21"/>
+      <c r="C47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="21"/>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="B44:B48"/>
     <mergeCell ref="Q2:Z15"/>
     <mergeCell ref="B38:B42"/>
     <mergeCell ref="D3:G3"/>
